--- a/data/2021-01-13 COVID-19 Vaccine Data by County.xlsx
+++ b/data/2021-01-13 COVID-19 Vaccine Data by County.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\IDPS immdox\COVID19\COVID Public Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nazlicanarslan/Desktop/github_clones/Covid19_VaccinePlanning_RF/Texas_vaccine_distribution_data/vaccine_data_by_county/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765F3787-A806-DC42-B42D-FEBB2A33712E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26480" windowHeight="15780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About the Data" sheetId="2" r:id="rId1"/>
@@ -19,10 +20,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'By County'!$A$1:$K$257</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1004,7 +1014,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\-#,##0"/>
   </numFmts>
@@ -1463,18 +1473,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.61328125" customWidth="1"/>
-    <col min="2" max="2" width="121.53515625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="45.625" customWidth="1"/>
+    <col min="2" max="2" width="121.5" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>271</v>
       </c>
@@ -1482,7 +1492,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>267</v>
       </c>
@@ -1490,7 +1500,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>293</v>
       </c>
@@ -1498,7 +1508,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1506,7 +1516,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -1514,7 +1524,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -1522,7 +1532,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>264</v>
       </c>
@@ -1530,7 +1540,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>261</v>
       </c>
@@ -1538,7 +1548,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="113.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>265</v>
       </c>
@@ -1546,7 +1556,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>266</v>
       </c>
@@ -1554,7 +1564,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>281</v>
       </c>
@@ -1569,26 +1579,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K257"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.25" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.4609375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.23046875" style="6" customWidth="1"/>
-    <col min="4" max="5" width="20.69140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.765625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="11.4609375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="13.23046875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="15.07421875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.765625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.25" style="6" customWidth="1"/>
+    <col min="4" max="5" width="20.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="6" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.75" style="6" customWidth="1"/>
     <col min="11" max="11" width="12" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="9.23046875" style="5"/>
+    <col min="12" max="16384" width="9.25" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="67.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1623,7 +1635,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>262</v>
       </c>
@@ -1631,11 +1643,11 @@
         <v>263</v>
       </c>
       <c r="C2" s="4">
-        <f t="shared" ref="C2:K2" si="0">SUM(C3:C257)</f>
+        <f>SUM(C3:C257)</f>
         <v>2058050</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C2:K2" si="0">SUM(D3:D257)</f>
         <v>862793</v>
       </c>
       <c r="E2" s="4">
@@ -1667,7 +1679,7 @@
         <v>9499038</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1702,7 +1714,7 @@
         <v>24078</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>7</v>
       </c>
@@ -1737,7 +1749,7 @@
         <v>5867</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>8</v>
       </c>
@@ -1772,7 +1784,7 @@
         <v>34525</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
@@ -1807,7 +1819,7 @@
         <v>10102</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>10</v>
       </c>
@@ -1842,7 +1854,7 @@
         <v>3131</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>11</v>
       </c>
@@ -1877,7 +1889,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>12</v>
       </c>
@@ -1912,7 +1924,7 @@
         <v>17891</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
@@ -1947,7 +1959,7 @@
         <v>10132</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>15</v>
       </c>
@@ -1982,7 +1994,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>16</v>
       </c>
@@ -2017,7 +2029,7 @@
         <v>9348</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
@@ -2052,7 +2064,7 @@
         <v>34606</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>18</v>
       </c>
@@ -2087,7 +2099,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>19</v>
       </c>
@@ -2122,7 +2134,7 @@
         <v>13037</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>20</v>
       </c>
@@ -2157,7 +2169,7 @@
         <v>105279</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>21</v>
       </c>
@@ -2192,7 +2204,7 @@
         <v>696450</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
         <v>22</v>
       </c>
@@ -2227,7 +2239,7 @@
         <v>4572</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
         <v>23</v>
       </c>
@@ -2262,7 +2274,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>24</v>
       </c>
@@ -2297,7 +2309,7 @@
         <v>7171</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>25</v>
       </c>
@@ -2332,7 +2344,7 @@
         <v>36179</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>26</v>
       </c>
@@ -2367,7 +2379,7 @@
         <v>119229</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>27</v>
       </c>
@@ -2402,7 +2414,7 @@
         <v>64988</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
         <v>28</v>
       </c>
@@ -2437,7 +2449,7 @@
         <v>3547</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
         <v>29</v>
       </c>
@@ -2472,7 +2484,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
         <v>30</v>
       </c>
@@ -2507,7 +2519,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
         <v>31</v>
       </c>
@@ -2542,7 +2554,7 @@
         <v>14261</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>32</v>
       </c>
@@ -2577,7 +2589,7 @@
         <v>7277</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>33</v>
       </c>
@@ -2612,7 +2624,7 @@
         <v>17381</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
         <v>34</v>
       </c>
@@ -2647,7 +2659,7 @@
         <v>16400</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
         <v>35</v>
       </c>
@@ -2682,7 +2694,7 @@
         <v>7841</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
         <v>36</v>
       </c>
@@ -2717,7 +2729,7 @@
         <v>5346</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
         <v>37</v>
       </c>
@@ -2752,7 +2764,7 @@
         <v>149238</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
         <v>38</v>
       </c>
@@ -2787,7 +2799,7 @@
         <v>4991</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
         <v>39</v>
       </c>
@@ -2822,7 +2834,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>40</v>
       </c>
@@ -2857,7 +2869,7 @@
         <v>12120</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
         <v>41</v>
       </c>
@@ -2892,7 +2904,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
         <v>42</v>
       </c>
@@ -2927,7 +2939,7 @@
         <v>13721</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
         <v>43</v>
       </c>
@@ -2962,7 +2974,7 @@
         <v>20430</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
         <v>44</v>
       </c>
@@ -2997,7 +3009,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
         <v>45</v>
       </c>
@@ -3032,7 +3044,7 @@
         <v>4071</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
         <v>46</v>
       </c>
@@ -3067,7 +3079,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
         <v>47</v>
       </c>
@@ -3102,7 +3114,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
         <v>48</v>
       </c>
@@ -3137,7 +3149,7 @@
         <v>3427</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
         <v>49</v>
       </c>
@@ -3172,7 +3184,7 @@
         <v>256993</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>50</v>
       </c>
@@ -3207,7 +3219,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
         <v>51</v>
       </c>
@@ -3242,7 +3254,7 @@
         <v>7953</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>52</v>
       </c>
@@ -3277,7 +3289,7 @@
         <v>45927</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
         <v>53</v>
       </c>
@@ -3312,7 +3324,7 @@
         <v>5170</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
         <v>54</v>
       </c>
@@ -3347,7 +3359,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
         <v>55</v>
       </c>
@@ -3382,7 +3394,7 @@
         <v>14449</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
         <v>56</v>
       </c>
@@ -3417,7 +3429,7 @@
         <v>25149</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
         <v>57</v>
       </c>
@@ -3452,7 +3464,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
         <v>58</v>
       </c>
@@ -3487,7 +3499,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="18" t="s">
         <v>59</v>
       </c>
@@ -3522,7 +3534,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
         <v>60</v>
       </c>
@@ -3557,7 +3569,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
         <v>61</v>
       </c>
@@ -3592,7 +3604,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
         <v>62</v>
       </c>
@@ -3627,7 +3639,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
         <v>63</v>
       </c>
@@ -3662,7 +3674,7 @@
         <v>820238</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="18" t="s">
         <v>64</v>
       </c>
@@ -3697,7 +3709,7 @@
         <v>5005</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="18" t="s">
         <v>66</v>
       </c>
@@ -3732,7 +3744,7 @@
         <v>6265</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="18" t="s">
         <v>67</v>
       </c>
@@ -3767,7 +3779,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="18" t="s">
         <v>68</v>
       </c>
@@ -3802,7 +3814,7 @@
         <v>276089</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="18" t="s">
         <v>65</v>
       </c>
@@ -3837,7 +3849,7 @@
         <v>7926</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="18" t="s">
         <v>69</v>
       </c>
@@ -3872,7 +3884,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="18" t="s">
         <v>70</v>
       </c>
@@ -3907,7 +3919,7 @@
         <v>4018</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="18" t="s">
         <v>71</v>
       </c>
@@ -3942,7 +3954,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="18" t="s">
         <v>72</v>
       </c>
@@ -3977,7 +3989,7 @@
         <v>4543</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="18" t="s">
         <v>73</v>
       </c>
@@ -4012,7 +4024,7 @@
         <v>7102</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="18" t="s">
         <v>74</v>
       </c>
@@ -4047,7 +4059,7 @@
         <v>54750</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="18" t="s">
         <v>75</v>
       </c>
@@ -4082,7 +4094,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="18" t="s">
         <v>76</v>
       </c>
@@ -4117,7 +4129,7 @@
         <v>281334</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
         <v>77</v>
       </c>
@@ -4152,7 +4164,7 @@
         <v>61039</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="18" t="s">
         <v>78</v>
       </c>
@@ -4187,7 +4199,7 @@
         <v>14817</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="18" t="s">
         <v>79</v>
       </c>
@@ -4222,7 +4234,7 @@
         <v>7192</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="18" t="s">
         <v>80</v>
       </c>
@@ -4257,7 +4269,7 @@
         <v>13661</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="18" t="s">
         <v>81</v>
       </c>
@@ -4292,7 +4304,7 @@
         <v>9754</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="18" t="s">
         <v>82</v>
       </c>
@@ -4327,7 +4339,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="18" t="s">
         <v>83</v>
       </c>
@@ -4362,7 +4374,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="18" t="s">
         <v>84</v>
       </c>
@@ -4397,7 +4409,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="18" t="s">
         <v>85</v>
       </c>
@@ -4432,7 +4444,7 @@
         <v>192056</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="18" t="s">
         <v>86</v>
       </c>
@@ -4467,7 +4479,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="18" t="s">
         <v>87</v>
       </c>
@@ -4502,7 +4514,7 @@
         <v>8172</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="18" t="s">
         <v>88</v>
       </c>
@@ -4537,7 +4549,7 @@
         <v>7605</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="18" t="s">
         <v>89</v>
       </c>
@@ -4572,7 +4584,7 @@
         <v>6531</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="18" t="s">
         <v>90</v>
       </c>
@@ -4607,7 +4619,7 @@
         <v>113161</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="18" t="s">
         <v>91</v>
       </c>
@@ -4642,7 +4654,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="18" t="s">
         <v>92</v>
       </c>
@@ -4677,7 +4689,7 @@
         <v>10293</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="18" t="s">
         <v>93</v>
       </c>
@@ -4712,7 +4724,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="18" t="s">
         <v>94</v>
       </c>
@@ -4747,7 +4759,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="18" t="s">
         <v>95</v>
       </c>
@@ -4782,7 +4794,7 @@
         <v>7818</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="18" t="s">
         <v>96</v>
       </c>
@@ -4817,7 +4829,7 @@
         <v>8475</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="18" t="s">
         <v>97</v>
       </c>
@@ -4852,7 +4864,7 @@
         <v>49725</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="18" t="s">
         <v>98</v>
       </c>
@@ -4887,7 +4899,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="18" t="s">
         <v>99</v>
       </c>
@@ -4922,7 +4934,7 @@
         <v>11724</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="18" t="s">
         <v>100</v>
       </c>
@@ -4957,7 +4969,7 @@
         <v>56504</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="18" t="s">
         <v>101</v>
       </c>
@@ -4992,7 +5004,7 @@
         <v>12481</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="18" t="s">
         <v>102</v>
       </c>
@@ -5027,7 +5039,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="18" t="s">
         <v>103</v>
       </c>
@@ -5062,7 +5074,7 @@
         <v>3427</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="18" t="s">
         <v>104</v>
       </c>
@@ -5097,7 +5109,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="18" t="s">
         <v>105</v>
       </c>
@@ -5132,7 +5144,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="18" t="s">
         <v>106</v>
       </c>
@@ -5167,7 +5179,7 @@
         <v>19766</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="18" t="s">
         <v>107</v>
       </c>
@@ -5202,7 +5214,7 @@
         <v>1572384</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="18" t="s">
         <v>108</v>
       </c>
@@ -5237,7 +5249,7 @@
         <v>25401</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="18" t="s">
         <v>109</v>
       </c>
@@ -5272,7 +5284,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="18" t="s">
         <v>110</v>
       </c>
@@ -5307,7 +5319,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="18" t="s">
         <v>111</v>
       </c>
@@ -5342,7 +5354,7 @@
         <v>67042</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="18" t="s">
         <v>112</v>
       </c>
@@ -5377,7 +5389,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="18" t="s">
         <v>113</v>
       </c>
@@ -5412,7 +5424,7 @@
         <v>35206</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="18" t="s">
         <v>114</v>
       </c>
@@ -5447,7 +5459,7 @@
         <v>319830</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="18" t="s">
         <v>115</v>
       </c>
@@ -5482,7 +5494,7 @@
         <v>14733</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="18" t="s">
         <v>116</v>
       </c>
@@ -5517,7 +5529,7 @@
         <v>8124</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="18" t="s">
         <v>117</v>
       </c>
@@ -5552,7 +5564,7 @@
         <v>23089</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="18" t="s">
         <v>118</v>
       </c>
@@ -5587,7 +5599,7 @@
         <v>13891</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="18" t="s">
         <v>119</v>
       </c>
@@ -5622,7 +5634,7 @@
         <v>9989</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="18" t="s">
         <v>120</v>
       </c>
@@ -5657,7 +5669,7 @@
         <v>14072</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="18" t="s">
         <v>121</v>
       </c>
@@ -5692,7 +5704,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="18" t="s">
         <v>122</v>
       </c>
@@ -5727,7 +5739,7 @@
         <v>36713</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="18" t="s">
         <v>123</v>
       </c>
@@ -5762,7 +5774,7 @@
         <v>7583</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="18" t="s">
         <v>124</v>
       </c>
@@ -5797,7 +5809,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="18" t="s">
         <v>125</v>
       </c>
@@ -5832,7 +5844,7 @@
         <v>3304</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="18" t="s">
         <v>126</v>
       </c>
@@ -5867,7 +5879,7 @@
         <v>5354</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="18" t="s">
         <v>127</v>
       </c>
@@ -5902,7 +5914,7 @@
         <v>15256</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="18" t="s">
         <v>128</v>
       </c>
@@ -5937,7 +5949,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="18" t="s">
         <v>129</v>
       </c>
@@ -5972,7 +5984,7 @@
         <v>109233</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="18" t="s">
         <v>130</v>
       </c>
@@ -6007,7 +6019,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="18" t="s">
         <v>131</v>
       </c>
@@ -6042,7 +6054,7 @@
         <v>15173</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="18" t="s">
         <v>132</v>
       </c>
@@ -6077,7 +6089,7 @@
         <v>61261</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="18" t="s">
         <v>133</v>
       </c>
@@ -6112,7 +6124,7 @@
         <v>8290</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="18" t="s">
         <v>134</v>
       </c>
@@ -6147,7 +6159,7 @@
         <v>6085</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="18" t="s">
         <v>135</v>
       </c>
@@ -6182,7 +6194,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="18" t="s">
         <v>136</v>
       </c>
@@ -6217,7 +6229,7 @@
         <v>15516</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="18" t="s">
         <v>137</v>
       </c>
@@ -6252,7 +6264,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="18" t="s">
         <v>138</v>
       </c>
@@ -6287,7 +6299,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="18" t="s">
         <v>139</v>
       </c>
@@ -6322,7 +6334,7 @@
         <v>20395</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="18" t="s">
         <v>140</v>
       </c>
@@ -6357,7 +6369,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="18" t="s">
         <v>141</v>
       </c>
@@ -6392,7 +6404,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="18" t="s">
         <v>142</v>
       </c>
@@ -6427,7 +6439,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="18" t="s">
         <v>143</v>
       </c>
@@ -6462,7 +6474,7 @@
         <v>10851</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="18" t="s">
         <v>144</v>
       </c>
@@ -6497,7 +6509,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="18" t="s">
         <v>145</v>
       </c>
@@ -6532,7 +6544,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="18" t="s">
         <v>146</v>
       </c>
@@ -6567,7 +6579,7 @@
         <v>19135</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="18" t="s">
         <v>147</v>
       </c>
@@ -6602,7 +6614,7 @@
         <v>5028</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="18" t="s">
         <v>148</v>
       </c>
@@ -6637,7 +6649,7 @@
         <v>8188</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="18" t="s">
         <v>149</v>
       </c>
@@ -6672,7 +6684,7 @@
         <v>7426</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="18" t="s">
         <v>150</v>
       </c>
@@ -6707,7 +6719,7 @@
         <v>6632</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="18" t="s">
         <v>151</v>
       </c>
@@ -6742,7 +6754,7 @@
         <v>6485</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="18" t="s">
         <v>152</v>
       </c>
@@ -6777,7 +6789,7 @@
         <v>32693</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="18" t="s">
         <v>153</v>
       </c>
@@ -6812,7 +6824,7 @@
         <v>9655</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="18" t="s">
         <v>154</v>
       </c>
@@ -6847,7 +6859,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="18" t="s">
         <v>155</v>
       </c>
@@ -6882,7 +6894,7 @@
         <v>4881</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="18" t="s">
         <v>156</v>
       </c>
@@ -6917,7 +6929,7 @@
         <v>9093</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="18" t="s">
         <v>157</v>
       </c>
@@ -6952,7 +6964,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="18" t="s">
         <v>158</v>
       </c>
@@ -6987,7 +6999,7 @@
         <v>94573</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="18" t="s">
         <v>159</v>
       </c>
@@ -7022,7 +7034,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="18" t="s">
         <v>160</v>
       </c>
@@ -7057,7 +7069,7 @@
         <v>5423</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="18" t="s">
         <v>161</v>
       </c>
@@ -7092,7 +7104,7 @@
         <v>4457</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="18" t="s">
         <v>162</v>
       </c>
@@ -7127,7 +7139,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="18" t="s">
         <v>163</v>
       </c>
@@ -7162,7 +7174,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="18" t="s">
         <v>164</v>
       </c>
@@ -7197,7 +7209,7 @@
         <v>14206</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="18" t="s">
         <v>165</v>
       </c>
@@ -7232,7 +7244,7 @@
         <v>21160</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="18" t="s">
         <v>166</v>
       </c>
@@ -7267,7 +7279,7 @@
         <v>3045</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="18" t="s">
         <v>167</v>
       </c>
@@ -7302,7 +7314,7 @@
         <v>84638</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="18" t="s">
         <v>168</v>
       </c>
@@ -7337,7 +7349,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="18" t="s">
         <v>169</v>
       </c>
@@ -7372,7 +7384,7 @@
         <v>19399</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="18" t="s">
         <v>170</v>
       </c>
@@ -7407,7 +7419,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="18" t="s">
         <v>171</v>
       </c>
@@ -7442,7 +7454,7 @@
         <v>54263</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="18" t="s">
         <v>172</v>
       </c>
@@ -7477,7 +7489,7 @@
         <v>10021</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="18" t="s">
         <v>173</v>
       </c>
@@ -7512,7 +7524,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="18" t="s">
         <v>174</v>
       </c>
@@ -7547,7 +7559,7 @@
         <v>3086</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="18" t="s">
         <v>175</v>
       </c>
@@ -7582,7 +7594,7 @@
         <v>7509</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="18" t="s">
         <v>176</v>
       </c>
@@ -7617,7 +7629,7 @@
         <v>177437</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="18" t="s">
         <v>177</v>
       </c>
@@ -7652,7 +7664,7 @@
         <v>7114</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="18" t="s">
         <v>178</v>
       </c>
@@ -7687,7 +7699,7 @@
         <v>4953</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="18" t="s">
         <v>179</v>
       </c>
@@ -7722,7 +7734,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="18" t="s">
         <v>180</v>
       </c>
@@ -7757,7 +7769,7 @@
         <v>24062</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="18" t="s">
         <v>181</v>
       </c>
@@ -7792,7 +7804,7 @@
         <v>19328</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="18" t="s">
         <v>182</v>
       </c>
@@ -7827,7 +7839,7 @@
         <v>6051</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="18" t="s">
         <v>183</v>
       </c>
@@ -7862,7 +7874,7 @@
         <v>5398</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="18" t="s">
         <v>184</v>
       </c>
@@ -7897,7 +7909,7 @@
         <v>135074</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="18" t="s">
         <v>185</v>
       </c>
@@ -7932,7 +7944,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="18" t="s">
         <v>186</v>
       </c>
@@ -7967,7 +7979,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="18" t="s">
         <v>187</v>
       </c>
@@ -8002,7 +8014,7 @@
         <v>32089</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="18" t="s">
         <v>188</v>
       </c>
@@ -8037,7 +8049,7 @@
         <v>11269</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="18" t="s">
         <v>189</v>
       </c>
@@ -8072,7 +8084,7 @@
         <v>9112</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="18" t="s">
         <v>190</v>
       </c>
@@ -8107,7 +8119,7 @@
         <v>47252</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="18" t="s">
         <v>191</v>
       </c>
@@ -8142,7 +8154,7 @@
         <v>3503</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="18" t="s">
         <v>192</v>
       </c>
@@ -8177,7 +8189,7 @@
         <v>5876</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="18" t="s">
         <v>193</v>
       </c>
@@ -8212,7 +8224,7 @@
         <v>20999</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="18" t="s">
         <v>194</v>
       </c>
@@ -8247,7 +8259,7 @@
         <v>41999</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="18" t="s">
         <v>195</v>
       </c>
@@ -8282,7 +8294,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="18" t="s">
         <v>196</v>
       </c>
@@ -8317,7 +8329,7 @@
         <v>4960</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="18" t="s">
         <v>197</v>
       </c>
@@ -8352,7 +8364,7 @@
         <v>41519</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="18" t="s">
         <v>198</v>
       </c>
@@ -8387,7 +8399,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="18" t="s">
         <v>199</v>
       </c>
@@ -8422,7 +8434,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="18" t="s">
         <v>200</v>
       </c>
@@ -8457,7 +8469,7 @@
         <v>5235</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="18" t="s">
         <v>201</v>
       </c>
@@ -8492,7 +8504,7 @@
         <v>5885</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="18" t="s">
         <v>202</v>
       </c>
@@ -8527,7 +8539,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="18" t="s">
         <v>203</v>
       </c>
@@ -8562,7 +8574,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="18" t="s">
         <v>204</v>
       </c>
@@ -8597,7 +8609,7 @@
         <v>6514</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="18" t="s">
         <v>205</v>
       </c>
@@ -8632,7 +8644,7 @@
         <v>30252</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="18" t="s">
         <v>206</v>
       </c>
@@ -8667,7 +8679,7 @@
         <v>3905</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="18" t="s">
         <v>207</v>
       </c>
@@ -8702,7 +8714,7 @@
         <v>21319</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="18" t="s">
         <v>208</v>
       </c>
@@ -8737,7 +8749,7 @@
         <v>4721</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="18" t="s">
         <v>209</v>
       </c>
@@ -8772,7 +8784,7 @@
         <v>3730</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="18" t="s">
         <v>210</v>
       </c>
@@ -8807,7 +8819,7 @@
         <v>12311</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="18" t="s">
         <v>211</v>
       </c>
@@ -8842,7 +8854,7 @@
         <v>22807</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="18" t="s">
         <v>212</v>
       </c>
@@ -8877,7 +8889,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="18" t="s">
         <v>213</v>
       </c>
@@ -8912,7 +8924,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="18" t="s">
         <v>214</v>
       </c>
@@ -8947,7 +8959,7 @@
         <v>6242</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="18" t="s">
         <v>215</v>
       </c>
@@ -8982,7 +8994,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="18" t="s">
         <v>216</v>
       </c>
@@ -9017,7 +9029,7 @@
         <v>9951</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="18" t="s">
         <v>217</v>
       </c>
@@ -9052,7 +9064,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="18" t="s">
         <v>218</v>
       </c>
@@ -9087,7 +9099,7 @@
         <v>75818</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="18" t="s">
         <v>219</v>
       </c>
@@ -9122,7 +9134,7 @@
         <v>3417</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="18" t="s">
         <v>220</v>
       </c>
@@ -9157,7 +9169,7 @@
         <v>23826</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="18" t="s">
         <v>221</v>
       </c>
@@ -9192,7 +9204,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="18" t="s">
         <v>222</v>
       </c>
@@ -9227,7 +9239,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="18" t="s">
         <v>223</v>
       </c>
@@ -9262,7 +9274,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="18" t="s">
         <v>224</v>
       </c>
@@ -9297,7 +9309,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="18" t="s">
         <v>225</v>
       </c>
@@ -9332,7 +9344,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="18" t="s">
         <v>226</v>
       </c>
@@ -9367,7 +9379,7 @@
         <v>660059</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="18" t="s">
         <v>227</v>
       </c>
@@ -9402,7 +9414,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="18" t="s">
         <v>228</v>
       </c>
@@ -9437,7 +9449,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="18" t="s">
         <v>229</v>
       </c>
@@ -9472,7 +9484,7 @@
         <v>4766</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="18" t="s">
         <v>230</v>
       </c>
@@ -9507,7 +9519,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="18" t="s">
         <v>231</v>
       </c>
@@ -9542,7 +9554,7 @@
         <v>11794</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="18" t="s">
         <v>232</v>
       </c>
@@ -9577,7 +9589,7 @@
         <v>39665</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="18" t="s">
         <v>233</v>
       </c>
@@ -9612,7 +9624,7 @@
         <v>337286</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="18" t="s">
         <v>234</v>
       </c>
@@ -9647,7 +9659,7 @@
         <v>6368</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="18" t="s">
         <v>235</v>
       </c>
@@ -9682,7 +9694,7 @@
         <v>9278</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="18" t="s">
         <v>236</v>
       </c>
@@ -9717,7 +9729,7 @@
         <v>15425</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="18" t="s">
         <v>237</v>
       </c>
@@ -9752,7 +9764,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="18" t="s">
         <v>238</v>
       </c>
@@ -9787,7 +9799,7 @@
         <v>10179</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="18" t="s">
         <v>239</v>
       </c>
@@ -9822,7 +9834,7 @@
         <v>17165</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="18" t="s">
         <v>240</v>
       </c>
@@ -9857,7 +9869,7 @@
         <v>21537</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="18" t="s">
         <v>241</v>
       </c>
@@ -9892,7 +9904,7 @@
         <v>33178</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="18" t="s">
         <v>242</v>
       </c>
@@ -9927,7 +9939,7 @@
         <v>28400</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="18" t="s">
         <v>243</v>
       </c>
@@ -9962,7 +9974,7 @@
         <v>18373</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="18" t="s">
         <v>244</v>
       </c>
@@ -9997,7 +10009,7 @@
         <v>4073</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="18" t="s">
         <v>245</v>
       </c>
@@ -10032,7 +10044,7 @@
         <v>13829</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="18" t="s">
         <v>246</v>
       </c>
@@ -10067,7 +10079,7 @@
         <v>96319</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="18" t="s">
         <v>247</v>
       </c>
@@ -10102,7 +10114,7 @@
         <v>16049</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="18" t="s">
         <v>248</v>
       </c>
@@ -10137,7 +10149,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="18" t="s">
         <v>249</v>
       </c>
@@ -10172,7 +10184,7 @@
         <v>50159</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="18" t="s">
         <v>250</v>
       </c>
@@ -10207,7 +10219,7 @@
         <v>5328</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="18" t="s">
         <v>251</v>
       </c>
@@ -10242,7 +10254,7 @@
         <v>9035</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="18" t="s">
         <v>252</v>
       </c>
@@ -10277,7 +10289,7 @@
         <v>160153</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="18" t="s">
         <v>253</v>
       </c>
@@ -10312,7 +10324,7 @@
         <v>16633</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="18" t="s">
         <v>254</v>
       </c>
@@ -10347,7 +10359,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="18" t="s">
         <v>255</v>
       </c>
@@ -10382,7 +10394,7 @@
         <v>26139</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="18" t="s">
         <v>256</v>
       </c>
@@ -10417,7 +10429,7 @@
         <v>18613</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="18" t="s">
         <v>257</v>
       </c>
@@ -10452,7 +10464,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="18" t="s">
         <v>258</v>
       </c>
@@ -10487,7 +10499,7 @@
         <v>6955</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="18" t="s">
         <v>259</v>
       </c>
@@ -10522,7 +10534,7 @@
         <v>5427</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="18" t="s">
         <v>260</v>
       </c>
@@ -10557,7 +10569,7 @@
         <v>4807</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="18" t="s">
         <v>294</v>
       </c>
@@ -10589,20 +10601,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.84375" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="18" style="13" customWidth="1"/>
-    <col min="4" max="4" width="37.765625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="22.23046875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="37.75" style="13" customWidth="1"/>
+    <col min="5" max="5" width="22.25" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>282</v>
       </c>
@@ -10619,7 +10631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>285</v>
       </c>
@@ -10636,7 +10648,7 @@
         <v>41870</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
       <c r="B3" s="18" t="s">
         <v>287</v>
@@ -10651,7 +10663,7 @@
         <v>17002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="22"/>
       <c r="B4" s="18" t="s">
         <v>288</v>
@@ -10666,7 +10678,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
       <c r="B5" s="18" t="s">
         <v>289</v>
@@ -10681,7 +10693,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="B6" s="18" t="s">
         <v>290</v>
@@ -10696,7 +10708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
       <c r="B7" s="18" t="s">
         <v>291</v>
@@ -10711,7 +10723,7 @@
         <v>61979</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>292</v>
       </c>
@@ -10728,7 +10740,7 @@
         <v>22785</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="22"/>
       <c r="B9" s="18" t="s">
         <v>287</v>
@@ -10743,7 +10755,7 @@
         <v>10422</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
       <c r="B10" s="18" t="s">
         <v>288</v>
@@ -10758,7 +10770,7 @@
         <v>2945</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
       <c r="B11" s="18" t="s">
         <v>289</v>
@@ -10773,7 +10785,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
       <c r="B12" s="18" t="s">
         <v>290</v>
@@ -10788,7 +10800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="22"/>
       <c r="B13" s="18" t="s">
         <v>291</v>
@@ -10803,7 +10815,7 @@
         <v>36316</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>290</v>
       </c>
@@ -10820,7 +10832,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="22"/>
       <c r="B15" s="18" t="s">
         <v>287</v>
@@ -10835,7 +10847,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
       <c r="B16" s="18" t="s">
         <v>288</v>
@@ -10850,7 +10862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="22"/>
       <c r="B17" s="18" t="s">
         <v>289</v>
@@ -10865,7 +10877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
       <c r="B18" s="18" t="s">
         <v>290</v>
@@ -10880,7 +10892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="22"/>
       <c r="B19" s="18" t="s">
         <v>291</v>
@@ -10895,7 +10907,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>262</v>
       </c>
